--- a/data/financial_statements/socf/T.xlsx
+++ b/data/financial_statements/socf/T.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -113,9 +233,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -168,12 +285,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -470,2001 +584,2049 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>-23120000000</v>
+      </c>
+      <c r="C2">
         <v>6346000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4736000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>5164000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>2905000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5019000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5613000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>7942000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-13515000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>3168000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1563000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4963000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>2704000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>3949000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>3974000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>4348000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>5130000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>4816000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>5248000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4759000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>19136000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3123000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4014000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>3574000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>2515000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3418000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>3515000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>3885000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>4086000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>3078000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>3184000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>3339000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>-3918000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>3299000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>3621000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>3734000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>7164000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>3905000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>3880000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>3773000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>4595000000</v>
+      </c>
+      <c r="C3">
         <v>4514000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>364000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8548000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>20516000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4457000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>200000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>8695000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>9134000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>9493000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>9001000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>9491000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>9489000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>8809000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>9803000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>9703000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>10056000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>9606000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>6546000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>5994000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>6071000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>6042000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>6147000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>6127000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>6129000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>6579000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>6576000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>6563000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>6477000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>6265000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>4696000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>4578000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>4567000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>4539000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>4550000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>4617000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>4680000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>4615000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>4571000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>4529000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>28043000000</v>
+      </c>
+      <c r="C4">
         <v>-1222000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>415000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-576000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>2261000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>512000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1222000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>-2158000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>18813000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1272000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>2234000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>-304000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3000000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1711000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>1214000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>1152000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>-445000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>697000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>-157000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>730000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-16922000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2589000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>563000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>1116000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>1663000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1572000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>702000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>1663000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>1106000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>646000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>1202000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>504000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>10758000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1156000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>-1147000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>714000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-3755000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1592000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>563000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>499000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>-294000000</v>
+      </c>
+      <c r="C5">
         <v>-271000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1520000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-228000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-533000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>-897000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>45000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>751000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>-105000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>-201000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>827000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1695000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>309000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>-1081000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>1459000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>2125000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-312000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>-1501000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>672000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>-439000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-334000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>-771000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>-326000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>445000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>105000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>-744000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>-407000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>43000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-707000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>303000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>-305000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>739000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>576000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>-703000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>-68000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>-498000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-889000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>-150000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>-585000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>295000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6">
         <v>3347000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3592000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2864000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>2152000000</v>
+      </c>
+      <c r="C7">
         <v>644000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>126000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-4031000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>4296000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1448000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-1048000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>-3060000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3495000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>-1058000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>37000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>-3884000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-588000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>2120000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>630000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>-3686000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>2987000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>2505000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>-1928000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>-1962000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2253000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>1324000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>-1179000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>-1582000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>1291000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>1859000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>958000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>-3990000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>22000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>2457000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>692000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>-1817000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>-2480000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>1896000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>1869000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>1025000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>268000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>-80000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>1335000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>-1675000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>-818000000</v>
+      </c>
+      <c r="C8">
         <v>-496000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>2826000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-2979000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-17203000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>-1438000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4040000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>-2084000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>-6592000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>-2487000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>-2417000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>-2627000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>-3929000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>-4393000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>-2659000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>-2233000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>-5224000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>-4037000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>-1282000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>153000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>-2262000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>-1096000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>-128000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>47000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>-2226000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>-1864000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>132000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>1091000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>-3762000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>-2892000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>9000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>268000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>-5708000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>-209000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>-571000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>-480000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>-109000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>-439000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>-80000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>864000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>-210000000</v>
+      </c>
+      <c r="C9">
         <v>579000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-349000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-166000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>622000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>209000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>-216000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-159000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-1148000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>1936000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>814000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-468000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>958000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>274000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-137000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-357000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>-112000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>260000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>1130000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-288000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>1595000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-408000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>-386000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-762000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>-237000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>175000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-1169000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-1355000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>1963000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>940000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>-318000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-873000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>1950000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>-1254000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>-184000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-313000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>558000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>-275000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-172000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-86000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>10348000000</v>
+      </c>
+      <c r="C10">
         <v>10094000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>9638000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>5732000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>12864000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>9310000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>9856000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>9927000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>10082000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>12123000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>12059000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>8866000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>11943000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>11389000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>14284000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>11052000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>12080000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>12346000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>10229000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>8947000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>9537000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>10803000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>8705000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>8965000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>9240000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>10995000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>10307000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>7900000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>9185000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>10797000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>9160000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>6738000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>5745000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>8724000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>8070000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>8799000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>7917000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>9168000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>9512000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>8199000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>-4229000000</v>
+      </c>
+      <c r="C11">
         <v>-5921000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-4728000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>-4748000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-4476000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>-4470000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>-3548000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>-4033000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>-2392000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>-3851000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>-4466000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-4966000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-3792000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>-5301000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>-5421000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-5121000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>-4556000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>-5736000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>-5002000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>-5957000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>-4891000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>-5006000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>-4966000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>-5784000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>-6233000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>-5581000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>-5251000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>-4451000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>-5862000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>-5028000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>-4480000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>-3848000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>-4370000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>-5180000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>-5933000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>-5716000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>-5379000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>-5900000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>-5413000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>-4252000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>-91000000</v>
+      </c>
+      <c r="C12">
         <v>-362000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-315000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-9233000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-241000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>6296000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>65000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-22833000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>2577000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>40000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-845000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>18000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>224000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-622000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>3380000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-107000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>972000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-1477000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-40478000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-178000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-28000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-65000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>1431000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-156000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>425000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-2360000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-294000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-84000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-61000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-9733000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-1376000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-19506000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>961000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-43000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>4375000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-311000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>989000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-2822000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>683000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-1040000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13">
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13">
         <v>14000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>337000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>344000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>55000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-74000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-120000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>108000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>194000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-112000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>22000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-2000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-130000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-1123000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>214000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>66000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>152000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>17000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>172000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>55000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>445000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>55000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>-400000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1890000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>103000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-1995000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>2000000</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
         <v>301000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>432000000</v>
+      </c>
+      <c r="C14">
         <v>583000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>383000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1330000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>1156000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>-25000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>14000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-7000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>363000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-19000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>-3102000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>70000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>-48000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-51000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-61000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>404000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-137000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>127000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>106000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>126000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>38000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-45000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-46000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>507000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-232000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>-219000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-218000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-229000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>-226000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-217000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>-123000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>-51000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>-61000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-63000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-55000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-74000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-73000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-79000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-65000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>-3888000000</v>
+      </c>
+      <c r="C15">
         <v>-5700000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-4660000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-12651000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-3561000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>1801000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>-3477000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>-26852000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>178000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>-3448000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>-5256000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-5022000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>-3688000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>-5703000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>-1898000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-5401000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>-3158000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-7352000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>-45483000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>-7152000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-4579000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>-4967000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>-3428000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>-5969000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>-5129000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-8172000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>-5709000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>-4308000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>-6097000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>-15387000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>-6073000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>-21587000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-3357000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-7279000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>-1619000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-6082000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>-4464000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>-8795000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-4508000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>-5357000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>-434000000</v>
+      </c>
+      <c r="C16">
         <v>-521000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-67975000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>30671000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-1662000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1794000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-707000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>24367000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-4137000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-10622000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3672000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>3067000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-3675000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-3990000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-5262000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-794000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-6241000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-6645000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>6443000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-2346000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>2000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>18455000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>8608000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>9387000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-135000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-1559000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>-2671000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>3682000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-77000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-7035000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>15063000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>15976000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>7445000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-7018000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>4087000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1103000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>3022000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>300000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1004000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>4832000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>-15000000</v>
+      </c>
+      <c r="C17">
         <v>-3000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-673000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-171000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-4000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-2000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>13000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>-113000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>2000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>9000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>-5405000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>-1953000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-48000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>237000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-22000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>354000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>334000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-418000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>-134000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>4000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>0</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-278000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>-156000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>-59000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>-229000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-167000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>89000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-259000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>113000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>12000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>8000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>5000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-214000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-145000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>-1224000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-1888000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>-1913000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-3258000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>-5855000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>-2665000000</v>
+      </c>
+      <c r="J18">
         <v>-1950000000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>1979000000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>0</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>3869000000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>7552000000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>1488000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>-2014000000</v>
+      </c>
+      <c r="C19">
         <v>-2010000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-2086000000</v>
-      </c>
-      <c r="D19">
-        <v>-3749000000</v>
       </c>
       <c r="E19">
         <v>-3749000000</v>
       </c>
       <c r="F19">
+        <v>-3749000000</v>
+      </c>
+      <c r="G19">
         <v>-3748000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-3830000000</v>
-      </c>
-      <c r="H19">
-        <v>-3741000000</v>
       </c>
       <c r="I19">
         <v>-3741000000</v>
@@ -2473,482 +2635,497 @@
         <v>-3741000000</v>
       </c>
       <c r="K19">
-        <v>-3737000000</v>
+        <v>-3741000000</v>
       </c>
       <c r="L19">
         <v>-3737000000</v>
       </c>
       <c r="M19">
-        <v>-3726000000</v>
+        <v>-3737000000</v>
       </c>
       <c r="N19">
         <v>-3726000000</v>
       </c>
       <c r="O19">
+        <v>-3726000000</v>
+      </c>
+      <c r="P19">
         <v>-3722000000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>-3714000000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>-3635000000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>-3631000000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>-3074000000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>-3070000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-3008000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-3009000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-3012000000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>-3009000000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>-2947000000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>-2951000000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>-2952000000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>-2947000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-2889000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-2438000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-2439000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-2434000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-2382000000</v>
-      </c>
-      <c r="AH19">
-        <v>-2386000000</v>
       </c>
       <c r="AI19">
         <v>-2386000000</v>
       </c>
       <c r="AJ19">
+        <v>-2386000000</v>
+      </c>
+      <c r="AK19">
         <v>-2398000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-2371000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>-2395000000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>-2428000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>-2502000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>-33000000</v>
+      </c>
+      <c r="C20">
         <v>-2405000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-2981000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>-2500000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-1460000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-1694000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-1856000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-2030000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-413000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-3474000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>244000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>-3893000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-940000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-1282000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-1615000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>109000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-2788000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-17000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-3169000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>2048000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>230000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>1639000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>250000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-173000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-1082000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>603000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-1608000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>471000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-944000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-804000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>789000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>-2860000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-1311000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-674000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-313000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>74000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-248000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>458000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>351000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-310000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>-5161000000</v>
+      </c>
+      <c r="C21">
         <v>-4939000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-73715000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>24251000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-6875000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-3650000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-6380000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>18483000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>-10239000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-15857000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>188000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-6099000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-2742000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-7558000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-10362000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-4421000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-12310000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-9959000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-218000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-3502000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-2772000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>17085000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>5568000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>6049000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-4223000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>-4136000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-7398000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>1295000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-4169000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-10164000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>13425000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>10690000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>3757000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-10292000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>1243000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-2445000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-1485000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>-3550000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-4331000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-3835000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
         <v>-1078000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>34206000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>1968000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>549000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>1299000000</v>
+      </c>
+      <c r="C23">
         <v>-1623000000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>-34531000000</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>17332000000</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-89000000</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>9429000000</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>548000000</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>1558000000</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>21000000</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>-7182000000</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>6991000000</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>-2255000000</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>5513000000</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>-1872000000</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>2024000000</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>1230000000</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>-3388000000</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>-4965000000</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>-35472000000</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>-1707000000</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>2186000000</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>22921000000</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>10845000000</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>9045000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>-112000000</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>-1313000000</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>-2800000000</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>4887000000</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>-1081000000</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>-14754000000</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>16512000000</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>-4159000000</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>6145000000</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>-8847000000</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>7694000000</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>272000000</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>1968000000</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>-3177000000</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>673000000</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>-993000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2957,10 +3134,10 @@
         <v>0</v>
       </c>
       <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
         <v>21316000000</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2969,10 +3146,10 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>9870000000</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2981,10 +3158,10 @@
         <v>0</v>
       </c>
       <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>12295000000</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2993,10 +3170,10 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>5400000000</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
       </c>
       <c r="R24">
         <v>0</v>
@@ -3005,10 +3182,10 @@
         <v>0</v>
       </c>
       <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
         <v>50932000000</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3017,22 +3194,22 @@
         <v>0</v>
       </c>
       <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
         <v>5935000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>152000000</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <v>5121000000</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -3041,10 +3218,10 @@
         <v>0</v>
       </c>
       <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
         <v>8603000000</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
       </c>
       <c r="AH24">
         <v>0</v>
@@ -3053,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
         <v>3339000000</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -3065,155 +3242,161 @@
         <v>0</v>
       </c>
       <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
         <v>4868000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>1299000000</v>
+      </c>
+      <c r="C25">
         <v>-1623000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-34531000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>38648000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-89000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>9429000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>548000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>11428000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>21000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-7182000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>6991000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>10040000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>5513000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-1872000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2024000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>6630000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>-3388000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>-4965000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>-35472000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>49225000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>2186000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>22921000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>10845000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>14980000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>40000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>-1313000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>-2800000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>10008000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-1081000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-14754000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>16512000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>4444000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>6145000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-8847000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>7694000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>3611000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>1968000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>-3177000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>673000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>3875000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>-2014000000</v>
+      </c>
+      <c r="C26">
         <v>-2010000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>-2086000000</v>
-      </c>
-      <c r="D26">
-        <v>-3749000000</v>
       </c>
       <c r="E26">
         <v>-3749000000</v>
       </c>
       <c r="F26">
+        <v>-3749000000</v>
+      </c>
+      <c r="G26">
         <v>-3748000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>-3830000000</v>
-      </c>
-      <c r="H26">
-        <v>-3741000000</v>
       </c>
       <c r="I26">
         <v>-3741000000</v>
@@ -3222,670 +3405,679 @@
         <v>-3741000000</v>
       </c>
       <c r="K26">
-        <v>-3737000000</v>
+        <v>-3741000000</v>
       </c>
       <c r="L26">
         <v>-3737000000</v>
       </c>
       <c r="M26">
-        <v>-3726000000</v>
+        <v>-3737000000</v>
       </c>
       <c r="N26">
         <v>-3726000000</v>
       </c>
       <c r="O26">
+        <v>-3726000000</v>
+      </c>
+      <c r="P26">
         <v>-3722000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>-3714000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>-3635000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>-3631000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>-3074000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>-3070000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-3008000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>-3009000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>-3012000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>-3009000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>-2947000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>-2951000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>-2952000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>-2947000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>-2889000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>-2438000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>-2439000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>-2434000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>-2382000000</v>
-      </c>
-      <c r="AH26">
-        <v>-2386000000</v>
       </c>
       <c r="AI26">
         <v>-2386000000</v>
       </c>
       <c r="AJ26">
+        <v>-2386000000</v>
+      </c>
+      <c r="AK26">
         <v>-2398000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>-2371000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>-2395000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>-2428000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>-2502000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27">
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27">
         <v>1.029</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.9523</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.9363</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.8957000000000001</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.8423</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.7318</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>0.7038</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>0.7366</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>0.528</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>0.572</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.6623</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.7231</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>0.8855</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>0.7164</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>0.8635</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>0.528</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>0.4792</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>0.4763</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>0.5075</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>0.462</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>0.4437</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>0.4764</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>0.4484</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>0.4984</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>0.625</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>0.6254999999999999</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>0.5016</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>0.5416</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>0.4189</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>0.3994</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>0.3953</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>0.4164</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>0.3786</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>0.4164</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>0.3718</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>0.3421</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
+        <v>1040000000</v>
+      </c>
+      <c r="C28">
         <v>-123000000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>4472000000</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>-7238000000</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-13440000000</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>-887000000</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>3037000000</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>-4393000000</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>-3202000000</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>-3746000000</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>-1553000000</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>-4816000000</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>-4208000000</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>-3354000000</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>-570000000</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>-3794000000</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>-2549000000</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>-3033000000</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>-2538000000</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>-2248000000</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-343000000</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>-543000000</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>-1633000000</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>-1090000000</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>-830000000</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>-749000000</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>683000000</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>-2856000000</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>-4447000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-132000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>396000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-810000000</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>-7612000000</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>984000000</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1230000000</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>47000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>-730000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>-669000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>670000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-516000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29">
         <v>14000000</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>337000000</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>344000000</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>55000000</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>-74000000</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>-120000000</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>108000000</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>194000000</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>-112000000</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>22000000</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>-2000000</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>-130000000</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>-1123000000</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>214000000</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>66000000</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>152000000</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>17000000</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>172000000</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>1000000</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>55000000</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>445000000</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>55000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-400000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>0</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1890000000</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>103000000</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>-1995000000</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>2000000</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
       </c>
       <c r="AL29">
         <v>0</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
         <v>301000000</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
+        <v>-2680000000</v>
+      </c>
+      <c r="C30">
         <v>-3000000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>-673000000</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>-171000000</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-4000000</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>-2000000</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>13000000</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>-113000000</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>-1948000000</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1980000000</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>9000000</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>-1536000000</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>5599000000</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1440000000</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>237000000</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>-22000000</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>354000000</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>334000000</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>-418000000</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>-134000000</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>4000000</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>0</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>-278000000</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>-156000000</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>-59000000</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>-229000000</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>-167000000</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>89000000</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>-259000000</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>113000000</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>12000000</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>8000000</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>5000000</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>-214000000</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>-145000000</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>-1224000000</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>-1888000000</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>-1913000000</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>-3258000000</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>-5855000000</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
         <v>-3000000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>-673000000</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>-171000000</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-4000000</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>-2000000</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>13000000</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>-113000000</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>2000000</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1980000000</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>9000000</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>-1536000000</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>5599000000</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>1440000000</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>237000000</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>-22000000</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>354000000</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>334000000</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>-418000000</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>-134000000</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>4000000</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>0</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>-278000000</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>-156000000</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>-59000000</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>-229000000</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>-167000000</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>89000000</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>-259000000</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>113000000</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>12000000</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>8000000</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>5000000</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>-214000000</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>-145000000</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>-1224000000</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>-1888000000</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>-1913000000</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>-3258000000</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>-5855000000</v>
       </c>
     </row>
